--- a/Mifos Automation Excels/Client/Scenario6-Chaithanyaprod-TR2-EARLY-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/Scenario6-Chaithanyaprod-TR2-EARLY-Makerepayment1.xlsx
@@ -528,7 +528,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -593,8 +593,8 @@
       <c r="E3" s="7">
         <v>3119.59</v>
       </c>
-      <c r="F3" s="7">
-        <v>1331.51</v>
+      <c r="F3" s="3">
+        <v>899.1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -647,7 +647,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -742,6 +742,7 @@
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
       <c r="P2" s="3"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -1057,7 +1058,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1098,7 +1099,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <v>2854</v>
+        <v>222</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>29</v>
@@ -1130,7 +1131,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <v>2851</v>
+        <v>221</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>29</v>
